--- a/data/trans_dic/P5_1-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P5_1-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que disfruta de patio en su vivienda</t>
+          <t>Población que disfruta de patio en su vivienda (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -606,17 +607,17 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>66,59%</t>
+          <t>66,61%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>52,0%</t>
+          <t>51,99%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>52,03%</t>
+          <t>52,15%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -626,7 +627,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>59,56%</t>
+          <t>59,63%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>56,14; 70,48</t>
+          <t>56,4; 71,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>58,42; 74,21</t>
+          <t>58,77; 74,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>43,93; 59,17</t>
+          <t>44,24; 60,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>43,82; 59,97</t>
+          <t>44,37; 60,73</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>52,41; 63,5</t>
+          <t>52,66; 63,86</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>53,81; 64,85</t>
+          <t>53,77; 65,02</t>
         </is>
       </c>
     </row>
@@ -681,12 +682,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>41,08%</t>
+          <t>41,07%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>42,94%</t>
+          <t>42,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -696,7 +697,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>37,17%</t>
+          <t>37,42%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -706,7 +707,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>40,18%</t>
+          <t>39,82%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>33,4; 48,11</t>
+          <t>32,29; 49,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>33,6; 51,95</t>
+          <t>32,24; 51,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>35,89; 50,12</t>
+          <t>36,92; 51,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>29,76; 45,71</t>
+          <t>29,92; 44,55</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>35,99; 47,16</t>
+          <t>37,05; 47,57</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>34,07; 46,01</t>
+          <t>34,34; 45,69</t>
         </is>
       </c>
     </row>
@@ -766,7 +767,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>43,71%</t>
+          <t>41,93%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -776,7 +777,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>46,22%</t>
+          <t>45,27%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -786,7 +787,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>44,97%</t>
+          <t>43,63%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>38,15; 51,75</t>
+          <t>38,47; 51,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>35,56; 52,67</t>
+          <t>34,15; 49,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>37,68; 48,41</t>
+          <t>38,27; 49,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>40,43; 52,28</t>
+          <t>39,31; 51,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>39,3; 48,15</t>
+          <t>40,12; 48,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>39,47; 50,71</t>
+          <t>38,72; 48,02</t>
         </is>
       </c>
     </row>
@@ -841,12 +842,12 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>50,93%</t>
+          <t>50,94%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>48,26%</t>
+          <t>47,66%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -856,17 +857,17 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>44,21%</t>
+          <t>44,15%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>47,59%</t>
+          <t>47,6%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>46,16%</t>
+          <t>45,86%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>45,25; 57,05</t>
+          <t>44,88; 57,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>41,32; 54,99</t>
+          <t>41,65; 54,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>39,27; 49,65</t>
+          <t>39,33; 49,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>38,4; 49,43</t>
+          <t>38,36; 50,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>43,64; 51,63</t>
+          <t>44,05; 51,65</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>42,02; 49,9</t>
+          <t>42,1; 50,46</t>
         </is>
       </c>
     </row>
@@ -921,12 +922,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>51,63%</t>
+          <t>51,62%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>51,86%</t>
+          <t>51,36%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -936,7 +937,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>47,83%</t>
+          <t>47,32%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -946,7 +947,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>49,81%</t>
+          <t>49,31%</t>
         </is>
       </c>
     </row>
@@ -959,32 +960,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>44,43; 58,69</t>
+          <t>44,89; 58,23</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>43,9; 59,49</t>
+          <t>44,2; 58,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>36,63; 48,69</t>
+          <t>36,41; 48,97</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>40,52; 54,56</t>
+          <t>40,72; 54,55</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>42,7; 52,09</t>
+          <t>42,56; 52,25</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>44,46; 54,76</t>
+          <t>44,58; 54,47</t>
         </is>
       </c>
     </row>
@@ -1001,12 +1002,12 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>48,91%</t>
+          <t>48,9%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>53,69%</t>
+          <t>51,82%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1016,7 +1017,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>44,95%</t>
+          <t>44,68%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1026,7 +1027,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>48,73%</t>
+          <t>47,76%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1040,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>41,88; 56,23</t>
+          <t>41,53; 55,41</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>45,03; 62,04</t>
+          <t>43,32; 59,81</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>40,61; 52,65</t>
+          <t>40,43; 52,89</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>37,38; 51,71</t>
+          <t>37,41; 51,11</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>43,21; 52,37</t>
+          <t>42,77; 51,9</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>43,36; 54,49</t>
+          <t>42,49; 53,05</t>
         </is>
       </c>
     </row>
@@ -1086,17 +1087,17 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>50,51%</t>
+          <t>49,53%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>45,18%</t>
+          <t>45,17%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>45,27%</t>
+          <t>44,99%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1106,7 +1107,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>47,83%</t>
+          <t>47,21%</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1120,39 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>46,85; 52,9</t>
+          <t>47,03; 52,84</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>47,0; 54,24</t>
+          <t>46,29; 52,89</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>42,57; 47,59</t>
+          <t>42,57; 47,63</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>42,62; 48,02</t>
+          <t>42,22; 47,6</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>45,49; 49,41</t>
+          <t>45,39; 49,41</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>45,52; 49,94</t>
+          <t>44,92; 49,26</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1164,4 +1172,952 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que disfruta de patio en su vivienda (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>198.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>171.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>329135</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>334422</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>240651</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>244499</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>569786</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>578920</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>289327; 365289</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>295067; 372264</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>204765; 277871</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>208016; 284689</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>513920; 623145</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>522033; 631269</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>173.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>142.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>231420</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>240810</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>224295</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>194215</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>455715</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>435025</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>181944; 277499</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>184817; 293274</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>191581; 265689</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>155292; 231231</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>400999; 514866</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>375092; 499061</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>144.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>260.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>221.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>303773</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>287818</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>300173</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>322506</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>603946</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>610324</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>259984; 349587</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>234367; 339122</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>265705; 340990</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>280073; 364475</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>549729; 664546</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>541617; 671781</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>306.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>258.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>325211</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>308514</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>313397</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>302732</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>638608</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>611246</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>286558; 365205</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>269556; 349747</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>276623; 349341</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>263017; 345946</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>590983; 693021</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>561164; 672628</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>224.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>211.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>264278</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>254404</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>214420</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>240862</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>478699</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>495265</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>229808; 298107</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>218915; 288647</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>182920; 246035</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>207281; 277687</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>431741; 530005</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>447725; 547081</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>239.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>184.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>267402</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>282538</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>339072</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>320643</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>606474</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>603182</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>227135; 303018</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>236194; 326072</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>295582; 386705</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>268528; 366862</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>546638; 663207</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>536626; 669979</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>668.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>577.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>732.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>610.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>1400.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>1187.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>1721218</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>1708506</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>1632009</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>1625457</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>3353227</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>3333963</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>1622224; 1822690</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>1596833; 1824603</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>1537969; 1720625</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>1525341; 1719643</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>3205834; 3489749</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>3172045; 3478745</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>